--- a/docs/PTA3_ADDC_30_1d5/PTA3_DDC_30_24.07.24_output.xlsx
+++ b/docs/PTA3_ADDC_30_1d5/PTA3_DDC_30_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731694966.0613189</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731694968.331915</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731694966.0613189.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731694968.331915.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.99</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.42</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5699999999999932</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731694971.669471</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731694971.951466</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731694971.669471.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731694971.951466.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>296.07</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>295.93</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1399999999999864</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731694972.1304836</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731694972.1304836.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731694972.1304836.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>296.26</v>
       </c>
-      <c r="J5" t="n">
-        <v>296.26</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>296.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731694972.716789</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731694974.8697264</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694972.716789.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694974.8697264.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>135.9</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>136.31</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.4099999999999966</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731694975.9855747</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731694976.4007792</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694975.9855747.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694976.4007792.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>135.98</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>136.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731694976.4431093</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731694976.5122278</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694976.4431093.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694976.5122278.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>136.2</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>136.05</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731694976.793749</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731694977.4601474</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694976.793749.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694977.4601474.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>136.38</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>136.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731694977.8963828</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731694978.2048976</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694977.8963828.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694978.2048976.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>136.76</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>136.71</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.04999999999998295</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731694978.723762</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731694979.3287342</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694978.723762.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694979.3287342.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>136.53</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>136.72</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731694979.5563018</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731694979.9306738</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694979.5563018.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694979.9306738.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>136.66</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>136.91</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731694979.9714077</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731694980.1306329</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694979.9714077.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731694980.1306329.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>137.08</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>136.94</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1103,95 +1185,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731694980.1991053</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731694980.1991053.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731694980.1991053.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>136.88</v>
       </c>
-      <c r="J14" t="n">
-        <v>136.88</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>136.76</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731694980.6268544</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731694980.7218397</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731694980.6268544.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731694980.7218397.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6971</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6964.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>6.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731694984.881125</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731694985.291962</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731694984.881125.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731694985.291962.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6950</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6973</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>23</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731694986.857888</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731694987.7563</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731694986.857888.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731694987.7563.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6949.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6961</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>11.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731694987.8801506</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731694988.3819318</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731694987.8801506.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731694988.3819318.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6980</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6960</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>20</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731694988.6702354</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731694992.9759295</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731694988.6702354.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731694992.9759295.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>533.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>536.45</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-3.25</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731694994.0273752</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731694994.5792017</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731694994.0273752.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731694994.5792017.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>535.35</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>536.3</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.9499999999999318</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731694995.626118</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731694996.0545015</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731694995.626118.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731694996.0545015.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>537.05</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>537</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.04999999999995453</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731694996.0684326</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731694996.1098468</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731694996.0684326.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731694996.1098468.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>537</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>537.05</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.04999999999995453</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731694996.1525817</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731694996.19275</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731694996.1525817.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731694996.19275.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>537</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>537.05</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.04999999999995453</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1615,95 +1757,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731694996.3146458</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731694996.3146458.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731694996.3146458.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>537.05</v>
       </c>
-      <c r="J24" t="n">
-        <v>537.05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>537</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.04999999999995453</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731694996.4937193</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731694999.7099977</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731694996.4937193.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731694999.7099977.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1103.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1098.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>4.800000000000182</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1711,95 +1865,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731695002.3377664</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731695002.3377664.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731695002.3377664.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J26" t="n">
-        <v>1094.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1084.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-10.20000000000005</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731695006.5721738</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731695013.2556043</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695006.5721738.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695013.2556043.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>129.48</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>131.12</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1.640000000000015</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-1.27</v>
       </c>
     </row>
@@ -1807,51 +1973,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731695018.4317765</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731695021.7853422</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695018.4317765.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695021.7853422.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>168.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>172.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-4</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-2.37</v>
       </c>
     </row>
@@ -1859,95 +2031,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731695022.0774662</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731695022.0774662.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731695022.0774662.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>172.18</v>
       </c>
-      <c r="J29" t="n">
-        <v>172.18</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>171.74</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731695026.688609</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731695029.6352482</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731695026.688609.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731695029.6352482.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>53.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>53.66</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.259999999999998</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -1955,95 +2139,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731695029.8884978</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731695029.8884978.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731695029.8884978.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>53.525</v>
       </c>
-      <c r="J31" t="n">
-        <v>53.525</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>53.535</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731695034.4280038</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731695036.073629</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731695034.4280038.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731695036.073629.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1465</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1468.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-3.799999999999955</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2051,51 +2247,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731695037.8036282</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731695038.7328093</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731695037.8036282.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731695038.7328093.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1470</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1468.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2103,95 +2305,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731695038.7847507</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731695038.7847507.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731695038.7847507.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1468</v>
       </c>
-      <c r="J34" t="n">
-        <v>1468</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1464.8</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731695040.8669238</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731695042.4237437</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731695040.8669238.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731695042.4237437.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>63.84</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.2299999999999898</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2199,51 +2413,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731695045.1684065</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731695047.4063983</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731695045.1684065.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731695047.4063983.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>64.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>64.15000000000001</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731695047.6000898</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731695047.8477652</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731695047.6000898.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731695047.8477652.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>63.91</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>64.11</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2303,51 +2529,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731695051.356941</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731695051.6946476</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SELG1731695051.356941.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SELG1731695051.6946476.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>59.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>59.23</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.02999999999999403</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2355,51 +2587,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731695051.9267044</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731695052.9592206</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731695051.9267044.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731695052.9592206.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>59.03</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>59.04</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2407,51 +2645,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731695053.8169212</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731695055.4060314</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/SELG1731695053.8169212.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/SELG1731695055.4060314.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>59.08</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>59.26</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.1799999999999997</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -2459,51 +2703,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731695055.4209635</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731695056.0546153</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SELG1731695055.4209635.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SELG1731695056.0546153.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>59.26</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>59.24</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2511,51 +2761,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731695059.0463355</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731695059.2870712</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731695059.0463355.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731695059.2870712.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>145.74</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>145.82</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2563,51 +2819,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731695060.0670335</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731695061.153799</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731695060.0670335.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731695061.153799.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>145.92</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>145.7</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2615,51 +2877,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731695061.7390797</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731695063.1063595</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731695061.7390797.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731695063.1063595.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>145.32</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>145.38</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2667,51 +2935,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731695064.3476043</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731695064.8531628</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731695064.3476043.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731695064.8531628.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>91.5</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>90.2</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -2719,51 +2993,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731695067.8311882</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731695069.3445663</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731695067.8311882.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731695069.3445663.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>89.36</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.2399999999999949</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -2771,51 +3051,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731695070.6877663</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731695071.1093132</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731695070.6877663.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731695071.1093132.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>89.38</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>89.08</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2823,51 +3109,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731695074.997334</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731695076.4881573</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731695074.997334.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731695076.4881573.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>364.06</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>361.6</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>2.45999999999998</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -2875,51 +3167,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731695079.4836307</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731695081.5969727</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731695079.4836307.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731695081.5969727.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>363.7</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>369.52</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-5.819999999999993</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-1.6</v>
       </c>
     </row>
@@ -2927,51 +3225,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731695082.8737366</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731695085.9028785</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/FEES1731695082.8737366.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/FEES1731695085.9028785.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>0.09960000000000001</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.10052</v>
       </c>
-      <c r="K50" t="n">
-        <v>-0.0009200000000000041</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
+        <v>-0.0009199999999999903</v>
+      </c>
+      <c r="N50" t="n">
         <v>-0.9199999999999999</v>
       </c>
     </row>
@@ -2979,51 +3283,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731695086.3745747</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731695086.8760934</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/FEES1731695086.3745747.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/FEES1731695086.8760934.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>0.1008</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.1004</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.0003999999999999976</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -3031,51 +3341,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731695087.6892414</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731695089.9257057</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/FEES1731695087.6892414.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/FEES1731695089.9257057.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>0.10026</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.10062</v>
       </c>
-      <c r="K52" t="n">
-        <v>0.0003600000000000131</v>
-      </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
+        <v>0.0003599999999999992</v>
+      </c>
+      <c r="N52" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3083,51 +3399,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731695089.9416664</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731695090.0095735</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/FEES1731695089.9416664.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/FEES1731695090.0095735.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>0.10062</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>0.1005</v>
       </c>
-      <c r="K53" t="n">
-        <v>0.000120000000000009</v>
-      </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
+        <v>0.0001199999999999951</v>
+      </c>
+      <c r="N53" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3135,95 +3457,107 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731695090.5378225</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731695090.5378225.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731695090.5378225.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>0.10024</v>
       </c>
-      <c r="J54" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>0.10026</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.000000000000612e-05</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731695090.7485952</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731695094.1470294</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731695090.7485952.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731695094.1470294.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>3117.15</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>3118.8</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-1.650000000000091</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3231,51 +3565,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731695095.60142</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731695097.1604154</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731695095.60142.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731695097.1604154.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>3124.55</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>3121.65</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>2.900000000000091</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3283,51 +3623,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731695098.5488386</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731695099.0656726</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731695098.5488386.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731695099.0656726.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>3126.75</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>3134</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-7.25</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3335,95 +3681,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731695099.2655017</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731695099.2655017.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731695099.2655017.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>3130</v>
       </c>
-      <c r="J58" t="n">
-        <v>3130</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>3132.95</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2.949999999999818</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731695102.6163697</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731695102.7440305</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731695102.6163697.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731695102.7440305.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>38.17</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>38.095</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.07500000000000284</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3431,51 +3789,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731695102.7606008</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731695105.2516818</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731695102.7606008.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731695105.2516818.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>38.095</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>37.97</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.125</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -3483,51 +3847,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731695108.784685</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731695108.9140732</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/TATN1731695108.784685.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/TATN1731695108.9140732.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>664.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>662.6</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3535,51 +3905,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731695109.6484053</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731695109.7533827</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/TATN1731695109.6484053.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/TATN1731695109.7533827.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>664.9</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>663.1</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3587,51 +3963,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731695112.3217175</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731695113.6932557</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/TATN1731695112.3217175.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/TATN1731695113.6932557.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>665.6</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>664.1</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>1.5</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3693,19 +4075,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06999999999996476</v>
+        <v>-0.05000000000003979</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007777777777773862</v>
+        <v>-0.005555555555559977</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -3715,16 +4097,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.150000000000205</v>
+        <v>-2.200000000000159</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3583333333333674</v>
+        <v>-0.3666666666666932</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="F3" t="n">
         <v>-0.07000000000000001</v>
@@ -3737,19 +4119,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.999999999998449e-05</v>
+        <v>-1.999999999999225e-05</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.999999999996898e-06</v>
+        <v>-3.999999999998449e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03999999999999992</v>
+        <v>-0.01999999999999992</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -3759,19 +4141,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6</v>
+        <v>-3.050000000000182</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.5</v>
+        <v>-0.7625000000000455</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.19</v>
+        <v>-0.1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="6">
@@ -3869,19 +4251,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7099999999999795</v>
+        <v>0.4699999999999704</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2366666666666598</v>
+        <v>0.1566666666666568</v>
       </c>
       <c r="E10" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
@@ -3935,19 +4317,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.599999999999909</v>
+        <v>-5.799999999999955</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8666666666666364</v>
+        <v>-1.933333333333318</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.18</v>
+        <v>-0.4</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="14">
@@ -3957,19 +4339,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4</v>
+        <v>-4.439999999999998</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-2</v>
+        <v>-2.219999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.37</v>
+        <v>-2.63</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.18</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="15">
@@ -3979,19 +4361,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.800000000000182</v>
+        <v>-5.399999999999864</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2.400000000000091</v>
+        <v>-2.699999999999932</v>
       </c>
       <c r="E15" t="n">
-        <v>0.44</v>
+        <v>-0.4899999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.22</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="16">
@@ -4023,16 +4405,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.259999999999998</v>
+        <v>-0.25</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.129999999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.49</v>
+        <v>-0.47</v>
       </c>
       <c r="F17" t="n">
         <v>-0.24</v>
